--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2d68d8ab5f6e43a/Projects/FoxLint/similarity_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{32278A76-5D72-404A-8440-A70ABD69BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31778819-4E3C-490B-9DCE-BA37DA416BE2}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="8_{32278A76-5D72-404A-8440-A70ABD69BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8ED06A8-8CD8-40AC-8065-1F53FE5F7E35}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{592B1947-A1E2-4781-B8FB-D1965CE0E239}"/>
   </bookViews>
   <sheets>
-    <sheet name="hybrid search" sheetId="1" r:id="rId1"/>
+    <sheet name="chunk size=1000" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="45">
   <si>
     <t>Search Query Results</t>
   </si>
@@ -260,6 +260,113 @@
 Apple Health Study Apps Privacy Policy
 .
 Fitness Information.</t>
+  </si>
+  <si>
+    <t>snowflake/snowflake-arctic-embed-xs</t>
+  </si>
+  <si>
+    <t>“cookies” and other technologies
+such as web beacons.
+These technologies help us to better understand user behavior including for security and fraud prevention purposes, tell us which parts of our websites people have visited, and facilitate and measure the effectiveness of advertisements and web searches.
+Communications Cookies.
+These cookies are used to enable network traffic to and from Apple’s systems, including by helping us detect any errors.
+Strictly Necessary Cookies.
+These cookies are set as required to provide a specific feature or service that you have accessed or requested. For example, they allow us to display our websites in the proper format and language, to authenticate and verify your transactions, and to preserve the contents of your Bag when shopping online at
+apple.com
+.
+Other Cookies.</t>
+  </si>
+  <si>
+    <t>Privacy Policy
+Apple Privacy Policy
+Hardware and Software
+Hardware and Software
+Hardware Warranties
+Software License Agreements
+RF Exposure
+More Resources
+More Resources
+Overview
+Government Information Requests
+Contact Apple Legal
+Global Trade Compliance
+Supplier Provisions
+Filemaker Legal Information
+Apple Bag Check Class Action Settlement
+Foreman Class Action Settlement
+Sales &amp; Support
+Sales &amp; Support
+Overview
+AppleCare
+Repair Terms and Conditions
+Express Replacement Service
+Remote Support Terms and Conditions
+Sales Policies
+Certification Agreements and Policies
+Apple Gift Card Terms and Conditions
+Training Service Terms and Conditions
+Support Communities Terms of Use
+Internet Services
+Internet Services
+Overview
+Apple Media Services Terms and Conditions
+Apple Gift Card Terms and Conditions
+iCloud Terms of Service
+TestFlight Terms and Conditions
+Privacy Policy
+Website Terms of Use
+Intellectual Property
+Intellectual Property
+Overview</t>
+  </si>
+  <si>
+    <t>However, to the extent that Internet Protocol (IP) addresses or similar identifiers are considered personal data by local law, we also treat these identifiers as personal data in those regions. In addition, Apple sometimes combines non-personal data collected from these technologies with other personal data Apple holds. When we combine data in this way, we treat the combined data as personal data for purposes of this Privacy Policy.
+Ads that are delivered by Apple’s advertising platform may appear on the App Store, Apple News, Stocks, and Apple TV app depending on your location. Apple’s advertising platform does not track you, meaning that it does not link user or device data collected from our apps with user or device data collected from third parties for targeted advertising or advertising measurement purposes, and does not share user or device data with data brokers.</t>
+  </si>
+  <si>
+    <t>Personal data relating to individuals in the European Economic Area, the United Kingdom, and Switzerland is controlled by Apple Distribution International Limited in Ireland. Apple’s international transfer of personal data collected in the European Economic Area, the United Kingdom, and Switzerland is governed by
+Standard Contractual Clauses
+. If you have questions or would like a copy of Apple’s Standard Contractual Clauses, you can contact us at
+apple.com/legal/privacy/contact
+.
+Personal data collected by
+Apple or an Apple-affiliated company
+worldwide is generally stored by Apple Inc. in the United States. Regardless of where your personal data is stored, Apple maintains the same high level of protection and safeguarding measures.</t>
+  </si>
+  <si>
+    <t>Apple’s Privacy Policy describes how Apple collects, uses, and shares your personal data.
+In addition to this Privacy Policy, we provide data and privacy information embedded in our products and certain features that ask to use your personal data. This product-specific information is accompanied by our Data &amp; Privacy Icon.
+You will be given an opportunity to review this product-specific information before using these features. You also can view this information at any time, either in settings related to those features and/or online at
+apple.com/legal/privacy/data
+.
+You can familiarize yourself with our privacy practices, accessible via the headings below, and
+contact us
+if you have any questions.
+Download a copy of this Privacy Policy
+Your California Privacy Disclosures
+Information Regarding Commercial Electronic Messages in Canada
+Consumer Health Personal Data Privacy Policy
+Apple Health Study Apps Privacy Policy
+What Is Personal Data at Apple?</t>
+  </si>
+  <si>
+    <t>BAAI/bge-base-en-v1.5</t>
+  </si>
+  <si>
+    <t>nomic-ai/nomic-embed-text-v1.5</t>
+  </si>
+  <si>
+    <t>BAAI/bge-large-en-v1.5</t>
+  </si>
+  <si>
+    <t>Privacy Questions
+If you have questions about Apple’s Privacy Policy or privacy practices including where a third-party service provider is acting on our behalf, or you would like to contact our Data Protection Officer, you can contact us at
+apple.com/legal/privacy/contact
+or call the
+Apple Support number
+for your country or region.
+You can also ask us questions about how to submit a privacy complaint and we will endeavor to help.
+Apple takes your privacy questions seriously. A dedicated team reviews your inquiry to determine how best to respond to your question or concern, including those inquiries received in response to an access or download request. In most cases, all substantive contacts receive a response within seven days. In other cases, we may require additional information or let you know that we need more time to respond.</t>
   </si>
 </sst>
 </file>
@@ -319,12 +426,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,6 +444,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,6 +468,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,551 +793,1078 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB42DEC-A0F7-4FEA-A9F4-9DE89055A522}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="62.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="52.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="55.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="61.88671875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="53.44140625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="39.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="61.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="53.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="256.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="256.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>384</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>384</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>384</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>384</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>384</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="6:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3">
+        <v>384</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>384</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>384</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>384</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <v>384</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3">
+        <v>768</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3">
+        <v>768</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>768</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
+        <v>768</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3">
+        <v>768</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3">
+        <v>768</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="276" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3">
+        <v>768</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3">
+        <v>768</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <v>768</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3">
+        <v>768</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="276" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
